--- a/ER-диаграмма.xlsx
+++ b/ER-диаграмма.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
   <si>
     <t>Название</t>
   </si>
@@ -132,9 +132,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>Количество блюд</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Классификатор цеха</t>
-  </si>
-  <si>
     <t>Обяз</t>
   </si>
   <si>
@@ -180,9 +174,6 @@
     <t>Caption</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -192,15 +183,9 @@
     <t>count</t>
   </si>
   <si>
-    <t>dish</t>
-  </si>
-  <si>
     <t>dish_id</t>
   </si>
   <si>
-    <t>table</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -270,18 +255,12 @@
     <t>Номер заказа</t>
   </si>
   <si>
-    <t>Номер блюда</t>
-  </si>
-  <si>
     <t>timestamp</t>
   </si>
   <si>
     <t>client_id</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>Zakaz</t>
   </si>
   <si>
@@ -300,9 +279,6 @@
     <t>Класификатор столов</t>
   </si>
   <si>
-    <t>Класификатор цеха</t>
-  </si>
-  <si>
     <t>zakaz_dish</t>
   </si>
   <si>
@@ -313,6 +289,69 @@
   </si>
   <si>
     <t>types_zakaz_table</t>
+  </si>
+  <si>
+    <t>Класификатор цехов</t>
+  </si>
+  <si>
+    <t>Классификатор цехов</t>
+  </si>
+  <si>
+    <t>types_zakaz_tseh</t>
+  </si>
+  <si>
+    <t>zakaz_client</t>
+  </si>
+  <si>
+    <t>varchar[500]</t>
+  </si>
+  <si>
+    <t>varchar[50]</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t>varchar[100]</t>
+  </si>
+  <si>
+    <t>Вид блюда</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>zakaz_id</t>
+  </si>
+  <si>
+    <t>картинка</t>
+  </si>
+  <si>
+    <t>types_zakaz_img</t>
+  </si>
+  <si>
+    <t>img_id</t>
+  </si>
+  <si>
+    <t>Класификтор картинок</t>
+  </si>
+  <si>
+    <t>Путь к картике</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>type_tseh_id</t>
+  </si>
+  <si>
+    <t>Новосибирская область. Город новосибирск улица абракадарбинская дом 192. кв 168. подъезд 1. этаж 1</t>
+  </si>
+  <si>
+    <t>Зона в зале</t>
+  </si>
+  <si>
+    <t>zona</t>
   </si>
 </sst>
 </file>
@@ -442,10 +481,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -469,14 +508,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -484,9 +523,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="4333875" y="685800"/>
-          <a:ext cx="619125" cy="161926"/>
+        <a:xfrm>
+          <a:off x="4572000" y="1819275"/>
+          <a:ext cx="619125" cy="1914525"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -514,16 +553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9527</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>590552</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66677</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -531,9 +570,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1" flipV="1">
-          <a:off x="4429127" y="1238251"/>
-          <a:ext cx="590548" cy="971549"/>
+        <a:xfrm flipH="1">
+          <a:off x="4552952" y="676275"/>
+          <a:ext cx="628648" cy="914402"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -561,16 +600,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104776</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -579,8 +618,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4429125" y="1438276"/>
-          <a:ext cx="590550" cy="2285999"/>
+          <a:off x="4562475" y="1600200"/>
+          <a:ext cx="628651" cy="590551"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -610,13 +649,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -656,14 +695,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>114301</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -672,9 +711,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8534400" y="2181225"/>
-          <a:ext cx="2447925" cy="28576"/>
+        <a:xfrm flipV="1">
+          <a:off x="9182100" y="647700"/>
+          <a:ext cx="2466975" cy="228601"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -704,14 +743,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -719,9 +758,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8801100" y="3714750"/>
-          <a:ext cx="2438400" cy="200025"/>
+        <a:xfrm>
+          <a:off x="9172575" y="2390775"/>
+          <a:ext cx="2438400" cy="962025"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1372,337 +1411,378 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T29"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
+    <col min="9" max="10" width="12.7109375" customWidth="1"/>
+    <col min="17" max="17" width="21.85546875" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="19" max="19" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P5" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" s="7">
+        <v>5</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="E8" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>2</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>3</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1">
-        <v>4</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="P8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1">
-        <v>5</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="S8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="Q9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="R9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="S9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q10" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="R10" s="11" t="s">
-        <v>94</v>
+      <c r="I10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>52</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S11" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>43</v>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -1711,13 +1791,13 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1</v>
@@ -1726,13 +1806,13 @@
         <v>1</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>1</v>
@@ -1740,31 +1820,31 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
@@ -1773,13 +1853,13 @@
         <v>2</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>1</v>
@@ -1787,158 +1867,160 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>11</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G14" s="1">
+        <v>2</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>7</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1">
         <v>3</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="P15" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>8</v>
       </c>
-      <c r="R15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="R16" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="P17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T17" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="H18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I18" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="P16" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q16" s="1" t="s">
+      <c r="P18" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="R18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="R16" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="S18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B19" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C19" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>1</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="E19" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="R18" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>2</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>34</v>
@@ -1953,100 +2035,109 @@
         <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
+      </c>
+      <c r="P19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S19" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="T19" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>40</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>49</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P20" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="P20">
+        <v>3</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="R20" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="R20" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P21" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="R21" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="S21" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="T21" s="7" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>82</v>
+        <v>60</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1</v>
@@ -2054,98 +2145,120 @@
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G23" s="1">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <v>5</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="S26" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="T26" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="11">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="S27" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T27" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="11">
+        <v>2</v>
+      </c>
+      <c r="Q28" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="S28" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="11">
         <v>3</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="K23" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="12"/>
-      <c r="T25" s="12"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="12" t="s">
+      <c r="Q29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="R27" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="S27" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T27" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="12">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="R28" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="S28" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="T28" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="12">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="R29" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="S29" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="T29" s="12" t="s">
-        <v>1</v>
+      <c r="R29" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/ER-диаграмма.xlsx
+++ b/ER-диаграмма.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79501\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
   <si>
     <t>Название</t>
   </si>
@@ -132,6 +132,9 @@
     <t>№</t>
   </si>
   <si>
+    <t>Количество блюд</t>
+  </si>
+  <si>
     <t>Email</t>
   </si>
   <si>
@@ -150,21 +153,15 @@
     <t>ID</t>
   </si>
   <si>
+    <t>Классификатор цеха</t>
+  </si>
+  <si>
     <t>Обяз</t>
   </si>
   <si>
     <t>Ключевое поле</t>
   </si>
   <si>
-    <t>Номер карты</t>
-  </si>
-  <si>
-    <t>Срок годности</t>
-  </si>
-  <si>
-    <t>CVV</t>
-  </si>
-  <si>
     <t>Код</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
     <t>Caption</t>
   </si>
   <si>
+    <t>varchar</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -183,9 +183,15 @@
     <t>count</t>
   </si>
   <si>
+    <t>dish</t>
+  </si>
+  <si>
     <t>dish_id</t>
   </si>
   <si>
+    <t>table</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
@@ -195,9 +201,6 @@
     <t>addres</t>
   </si>
   <si>
-    <t>pay</t>
-  </si>
-  <si>
     <t>tseh</t>
   </si>
   <si>
@@ -225,15 +228,6 @@
     <t>Time_2</t>
   </si>
   <si>
-    <t>card</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>cvv</t>
-  </si>
-  <si>
     <t>время окончания</t>
   </si>
   <si>
@@ -255,6 +249,9 @@
     <t>Номер заказа</t>
   </si>
   <si>
+    <t>Номер блюда</t>
+  </si>
+  <si>
     <t>timestamp</t>
   </si>
   <si>
@@ -279,6 +276,9 @@
     <t>Класификатор столов</t>
   </si>
   <si>
+    <t>Класификатор цеха</t>
+  </si>
+  <si>
     <t>zakaz_dish</t>
   </si>
   <si>
@@ -291,67 +291,13 @@
     <t>types_zakaz_table</t>
   </si>
   <si>
-    <t>Класификатор цехов</t>
-  </si>
-  <si>
-    <t>Классификатор цехов</t>
-  </si>
-  <si>
-    <t>types_zakaz_tseh</t>
+    <t>types_tseh_id</t>
+  </si>
+  <si>
+    <t>types_tseh</t>
   </si>
   <si>
     <t>zakaz_client</t>
-  </si>
-  <si>
-    <t>varchar[500]</t>
-  </si>
-  <si>
-    <t>varchar[50]</t>
-  </si>
-  <si>
-    <t>caption</t>
-  </si>
-  <si>
-    <t>varchar[100]</t>
-  </si>
-  <si>
-    <t>Вид блюда</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>zakaz_id</t>
-  </si>
-  <si>
-    <t>картинка</t>
-  </si>
-  <si>
-    <t>types_zakaz_img</t>
-  </si>
-  <si>
-    <t>img_id</t>
-  </si>
-  <si>
-    <t>Класификтор картинок</t>
-  </si>
-  <si>
-    <t>Путь к картике</t>
-  </si>
-  <si>
-    <t>path</t>
-  </si>
-  <si>
-    <t>type_tseh_id</t>
-  </si>
-  <si>
-    <t>Новосибирская область. Город новосибирск улица абракадарбинская дом 192. кв 168. подъезд 1. этаж 1</t>
-  </si>
-  <si>
-    <t>Зона в зале</t>
-  </si>
-  <si>
-    <t>zona</t>
   </si>
 </sst>
 </file>
@@ -368,7 +314,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,12 +330,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -481,8 +421,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
@@ -508,14 +448,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -523,9 +463,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4572000" y="1819275"/>
-          <a:ext cx="619125" cy="1914525"/>
+        <a:xfrm flipV="1">
+          <a:off x="4333875" y="685800"/>
+          <a:ext cx="619125" cy="161926"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -553,16 +493,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>590552</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9527</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66677</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -570,9 +510,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4552952" y="676275"/>
-          <a:ext cx="628648" cy="914402"/>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="4429127" y="1238251"/>
+          <a:ext cx="590548" cy="971549"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -600,16 +540,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>95251</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -618,8 +558,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="4562475" y="1600200"/>
-          <a:ext cx="628651" cy="590551"/>
+          <a:off x="4429125" y="1438276"/>
+          <a:ext cx="590550" cy="2285999"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -647,16 +587,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -664,9 +604,56 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="228601" y="2686050"/>
-          <a:ext cx="9524" cy="371475"/>
+        <a:xfrm flipV="1">
+          <a:off x="8791575" y="2676525"/>
+          <a:ext cx="2676526" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="8801100" y="1238250"/>
+          <a:ext cx="2447925" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -696,61 +683,14 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>114301</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Прямая со стрелкой 31"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="9182100" y="647700"/>
-          <a:ext cx="2466975" cy="228601"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -759,8 +699,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9172575" y="2390775"/>
-          <a:ext cx="2438400" cy="962025"/>
+          <a:off x="8810625" y="3914775"/>
+          <a:ext cx="2438400" cy="152400"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1411,165 +1351,166 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T32"/>
+  <dimension ref="A2:T29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="16.5703125" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="10" width="12.7109375" customWidth="1"/>
-    <col min="17" max="17" width="21.85546875" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="17" max="17" width="21.140625" customWidth="1"/>
     <col min="18" max="18" width="17.42578125" customWidth="1"/>
-    <col min="19" max="19" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G1" s="1"/>
-      <c r="H1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G2" s="9" t="s">
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="B3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="E3" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="D4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="J3" s="1" t="s">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G4" s="1">
-        <v>2</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G5" s="1">
+      <c r="E6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P5" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>49</v>
@@ -1577,84 +1518,108 @@
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="1">
-        <v>3</v>
-      </c>
-      <c r="Q6" s="1" t="s">
+      <c r="P6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" s="7">
-        <v>5</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P7" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P8" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="R8" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>49</v>
@@ -1665,51 +1630,45 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>1</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>42</v>
+        <v>6</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="P9" s="7">
-        <v>6</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="T9" s="7" t="s">
+      <c r="P9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>49</v>
@@ -1717,311 +1676,245 @@
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>41</v>
+      <c r="H10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P10" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>76</v>
+        <v>31</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="7" t="s">
+      <c r="G11" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="R11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>100</v>
+      <c r="T11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="K12" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P12" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>58</v>
+        <v>33</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P13" s="1">
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>3</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <v>4</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S15" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="P16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P17" s="1">
         <v>2</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>6</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>2</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>8</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="R16" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="P17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="H18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="P18" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q18" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T18" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="R17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="H18" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G19" s="9" t="s">
         <v>34</v>
       </c>
@@ -2035,231 +1928,162 @@
         <v>27</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="P19" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S19" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T19" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P20">
-        <v>3</v>
-      </c>
-      <c r="Q20" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="R20" s="13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>2</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="R20" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>49</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="P21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="T21" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
       <c r="G22" s="1">
+        <v>2</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
         <v>3</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="J23" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>75</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G24" s="1">
-        <v>5</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K24" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="T26" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="S27" s="11" t="s">
+      <c r="P23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="R23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="S23" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="T27" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="11">
-        <v>2</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="T28" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="11">
-        <v>3</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="T29" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>106</v>
-      </c>
+      <c r="T23" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+    </row>
+    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+    </row>
+    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+    </row>
+    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+    </row>
+    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ER-диаграмма.xlsx
+++ b/ER-диаграмма.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\79501\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vladd\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E650C3BF-96A7-4BDC-9979-BD70D5D7F70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="89">
   <si>
     <t>Название</t>
   </si>
@@ -147,9 +148,6 @@
     <t>Наименование</t>
   </si>
   <si>
-    <t>Цех</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -162,24 +160,15 @@
     <t>Ключевое поле</t>
   </si>
   <si>
-    <t>Код</t>
-  </si>
-  <si>
     <t>описание</t>
   </si>
   <si>
     <t>Caption</t>
   </si>
   <si>
-    <t>varchar</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>Кода</t>
-  </si>
-  <si>
     <t>count</t>
   </si>
   <si>
@@ -201,9 +190,6 @@
     <t>addres</t>
   </si>
   <si>
-    <t>tseh</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -298,12 +284,21 @@
   </si>
   <si>
     <t>zakaz_client</t>
+  </si>
+  <si>
+    <t>varchar[100]</t>
+  </si>
+  <si>
+    <t>varchar[15]</t>
+  </si>
+  <si>
+    <t>varchar[500]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -402,10 +397,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -415,16 +409,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -459,7 +447,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Прямая со стрелкой 2"/>
+        <xdr:cNvPr id="3" name="Прямая со стрелкой 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -506,7 +500,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="Прямая со стрелкой 7"/>
+        <xdr:cNvPr id="8" name="Прямая со стрелкой 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -553,7 +553,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="11" name="Прямая со стрелкой 10"/>
+        <xdr:cNvPr id="11" name="Прямая со стрелкой 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -587,26 +593,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>99646</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Прямая со стрелкой 18"/>
+        <xdr:cNvPr id="19" name="Прямая со стрелкой 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="8791575" y="2676525"/>
-          <a:ext cx="2676526" cy="95250"/>
+        <a:xfrm flipH="1">
+          <a:off x="11676186" y="1998785"/>
+          <a:ext cx="480645" cy="554648"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -635,25 +647,31 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="Прямая со стрелкой 31"/>
+        <xdr:cNvPr id="32" name="Прямая со стрелкой 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="8801100" y="1238250"/>
-          <a:ext cx="2447925" cy="942975"/>
+          <a:off x="9013074" y="792480"/>
+          <a:ext cx="610986" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -683,24 +701,30 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="40" name="Прямая со стрелкой 39"/>
+        <xdr:cNvPr id="40" name="Прямая со стрелкой 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8810625" y="3914775"/>
-          <a:ext cx="2438400" cy="152400"/>
+        <a:xfrm flipV="1">
+          <a:off x="9008745" y="3566160"/>
+          <a:ext cx="607695" cy="196215"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -991,253 +1015,251 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G1:G20"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="27.140625" customWidth="1"/>
-    <col min="5" max="5" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" customWidth="1"/>
+    <col min="5" max="5" width="26.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3"/>
-      <c r="B1" s="3" t="s">
+    <row r="1" spans="1:7" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="B5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="1"/>
@@ -1251,98 +1273,95 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D28" s="2"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1350,106 +1369,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" customWidth="1"/>
+    <col min="7" max="7" width="3.109375" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.109375" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="17" max="17" width="21.140625" customWidth="1"/>
-    <col min="18" max="18" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="13" max="13" width="3.109375" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" customWidth="1"/>
+    <col min="15" max="15" width="16.44140625" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" customWidth="1"/>
+    <col min="18" max="18" width="17.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="N4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="O4" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="P4" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="Q4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1457,10 +1503,10 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -1472,22 +1518,31 @@
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="R5" s="11" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1495,10 +1550,10 @@
         <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
@@ -1510,42 +1565,42 @@
         <v>13</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>1</v>
@@ -1557,42 +1612,42 @@
         <v>36</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P7" s="1">
-        <v>1</v>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T7" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>5</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>1</v>
@@ -1604,159 +1659,129 @@
         <v>32</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P8" s="1">
-        <v>2</v>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="1" t="s">
         <v>30</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>75</v>
+        <v>51</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P9" s="1">
-        <v>3</v>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T9" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>7</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="P10" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T10" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>59</v>
+      <c r="C11" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="10" t="s">
+      <c r="H11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="10" t="s">
+      <c r="J11" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="K11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="1">
-        <v>5</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="K11" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>9</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>1</v>
@@ -1765,51 +1790,72 @@
         <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="N12" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>10</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="1">
         <v>2</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="M13" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="G14" s="1">
         <v>3</v>
       </c>
@@ -1817,176 +1863,158 @@
         <v>9</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="K14" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G15" s="1">
-        <v>4</v>
-      </c>
-      <c r="H15" s="1" t="s">
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G19" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P15" s="9" t="s">
+      <c r="M19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="N19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="R15" s="9" t="s">
+      <c r="O19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="9" t="s">
+      <c r="P19" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="T15" s="9" t="s">
+      <c r="Q19" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="7:17" x14ac:dyDescent="0.3">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="P16" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T16" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P17" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q17" s="1" t="s">
+      <c r="O20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="R17" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="H18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="19" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="G20" s="1">
-        <v>1</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="R20" s="7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="Q20" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G21" s="1">
         <v>2</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>49</v>
+        <v>74</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="7:20" x14ac:dyDescent="0.25">
+      <c r="M21" s="1">
+        <v>2</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G22" s="1">
         <v>2</v>
       </c>
@@ -1994,96 +2022,31 @@
         <v>37</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>75</v>
+        <v>60</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P22" s="1">
-        <v>1</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="R22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="7:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="7:17" x14ac:dyDescent="0.3">
       <c r="G23" s="1">
         <v>3</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>75</v>
+        <v>61</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="P23" s="1">
-        <v>2</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="R23" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="S23" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="T23" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="13"/>
-    </row>
-    <row r="26" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="13"/>
-    </row>
-    <row r="27" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="13"/>
-      <c r="T27" s="13"/>
-    </row>
-    <row r="28" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
-      <c r="R28" s="13"/>
-      <c r="S28" s="13"/>
-      <c r="T28" s="13"/>
-    </row>
-    <row r="29" spans="7:20" x14ac:dyDescent="0.25">
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="13"/>
-      <c r="S29" s="13"/>
-      <c r="T29" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
